--- a/biology/Zoologie/Geogarypus_minor/Geogarypus_minor.xlsx
+++ b/biology/Zoologie/Geogarypus_minor/Geogarypus_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geogarypus minor est une espèce de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Portugal, en Espagne, en France, en Italie, à Malte, en Autriche, en Croatie, en Albanie, en Grèce, en Bulgarie, en Turquie, en Algérie et au Maroc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Portugal, en Espagne, en France, en Italie, à Malte, en Autriche, en Croatie, en Albanie, en Grèce, en Bulgarie, en Turquie, en Algérie et au Maroc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,4 à 1,8 mm et les femelles de 1,6 à 2,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,4 à 1,8 mm et les femelles de 1,6 à 2,2 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus minor par L. Koch en 1873. Elle est placée dans le genre Geogarypus par Chamberlin en 1930[3].
-L'espèce Geogarypus nigrimanus a été placée en synonymie avec Geogarypus minor par Gardini, Galli et Zinni en 2017[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus minor par L. Koch en 1873. Elle est placée dans le genre Geogarypus par Chamberlin en 1930.
+L'espèce Geogarypus nigrimanus a été placée en synonymie avec Geogarypus minor par Gardini, Galli et Zinni en 2017.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1873 : Uebersichtliche Dartstellung der Europäischen Chernetiden (Pseudoscorpione). Bauer und Raspe, Nürnberg, p. 1-68 (texte intégral).</t>
         </is>
